--- a/Daily/Ljung_Box/Square First Difference/Nippon_tel.xlsx
+++ b/Daily/Ljung_Box/Square First Difference/Nippon_tel.xlsx
@@ -396,7 +396,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.06763903372052403</v>
+        <v>0.09981504661013678</v>
+      </c>
+      <c r="C2">
+        <v>0.7520516983082551</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -404,7 +407,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.382398382106578</v>
+        <v>0.1012289572187337</v>
+      </c>
+      <c r="C3">
+        <v>0.9506450939144672</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -412,10 +418,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.041961591787507</v>
+        <v>0.1036491512103664</v>
       </c>
       <c r="C4">
-        <v>0.1530122194953482</v>
+        <v>0.9913959444062185</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -423,10 +429,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3.005496570335134</v>
+        <v>0.1963739124887282</v>
       </c>
       <c r="C5">
-        <v>0.2225177767264428</v>
+        <v>0.9954838706715444</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -434,10 +440,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3.006330715050374</v>
+        <v>0.5622748992943886</v>
       </c>
       <c r="C6">
-        <v>0.3906501340459473</v>
+        <v>0.9896652858960958</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -445,10 +451,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4.093522010651519</v>
+        <v>1.07058790200452</v>
       </c>
       <c r="C7">
-        <v>0.3934969569449999</v>
+        <v>0.9827943087695031</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -456,10 +462,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>14.40230068684585</v>
+        <v>2.524326181121189</v>
       </c>
       <c r="C8">
-        <v>0.01324612154347525</v>
+        <v>0.9252541665043832</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -467,10 +473,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>14.40273678971446</v>
+        <v>2.533190457819549</v>
       </c>
       <c r="C9">
-        <v>0.02544704036420066</v>
+        <v>0.9601652386438388</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -478,10 +484,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>15.30738895914243</v>
+        <v>3.887796777291061</v>
       </c>
       <c r="C10">
-        <v>0.03225490582919027</v>
+        <v>0.918640930405715</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -489,10 +495,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>16.45112399408405</v>
+        <v>3.934970215019649</v>
       </c>
       <c r="C11">
-        <v>0.03635990383986379</v>
+        <v>0.9502329020182296</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -500,10 +506,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>19.50031681390474</v>
+        <v>4.886918415015682</v>
       </c>
       <c r="C12">
-        <v>0.02125936201322573</v>
+        <v>0.936518994398693</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -511,10 +517,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>20.00275561224328</v>
+        <v>5.942148607833791</v>
       </c>
       <c r="C13">
-        <v>0.02922663538862863</v>
+        <v>0.9189701502226642</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -522,10 +528,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>20.57567641615391</v>
+        <v>6.506685225543092</v>
       </c>
       <c r="C14">
-        <v>0.03804327799686862</v>
+        <v>0.9257562178761719</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -533,10 +539,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>21.2012090109045</v>
+        <v>7.005581608325993</v>
       </c>
       <c r="C15">
-        <v>0.04751056207398018</v>
+        <v>0.9344965221098928</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -544,10 +550,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>22.42380213921733</v>
+        <v>9.124322476081296</v>
       </c>
       <c r="C16">
-        <v>0.04913321199533167</v>
+        <v>0.8709277427015167</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -555,10 +561,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>23.42796597909095</v>
+        <v>9.702507649534684</v>
       </c>
       <c r="C17">
-        <v>0.05365260589706299</v>
+        <v>0.8816953950293113</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -566,10 +572,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>28.63909365956549</v>
+        <v>11.61896502831495</v>
       </c>
       <c r="C18">
-        <v>0.01789420777575284</v>
+        <v>0.8226410997125405</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -577,10 +583,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>28.86478989916285</v>
+        <v>11.62335192229511</v>
       </c>
       <c r="C19">
-        <v>0.02486392955880252</v>
+        <v>0.8660608963585805</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -588,10 +594,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>28.8991763759827</v>
+        <v>12.51340801461351</v>
       </c>
       <c r="C20">
-        <v>0.03546717732253182</v>
+        <v>0.8625238199831136</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -599,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>32.63537004935363</v>
+        <v>16.67033674083022</v>
       </c>
       <c r="C21">
-        <v>0.01846782997047966</v>
+        <v>0.6742645708727721</v>
       </c>
     </row>
   </sheetData>
